--- a/Documents/Matrice RACI Reseau/Matrice_RACI_Reseau.xlsx
+++ b/Documents/Matrice RACI Reseau/Matrice_RACI_Reseau.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azn_j\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azn_j\Desktop\ESGI\2017-2018\Projet_annuel\Projet_Annuel2i\Documents\Matrice RACI Reseau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>RACI Chart (Roles and Responsibilities Matrix)</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>,,,,</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>AR</t>
   </si>
 </sst>
 </file>
@@ -668,6 +674,34 @@
     <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -686,6 +720,9 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -753,37 +790,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1168,7 +1174,7 @@
   <dimension ref="B1:I23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,23 +1220,23 @@
         <v>24</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="58"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1276,23 +1282,23 @@
         <v>27</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="50"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="2:9" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1306,7 +1312,7 @@
       <c r="I12" s="3"/>
     </row>
     <row r="14" spans="2:9" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="43" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -1322,28 +1328,28 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="51" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="32"/>
-      <c r="D15" s="74" t="s">
-        <v>23</v>
+      <c r="D15" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G15" s="30"/>
       <c r="H15" s="31"/>
     </row>
     <row r="16" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="52" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="45" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -1356,31 +1362,31 @@
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="51" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="32"/>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="78" t="s">
+      <c r="F17" s="48" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="33"/>
       <c r="H17" s="34"/>
     </row>
     <row r="18" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="52" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="79" t="s">
+      <c r="E18" s="49" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -1390,51 +1396,49 @@
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="2:8" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="81" t="s">
-        <v>37</v>
-      </c>
+      <c r="B19" s="51"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="80" t="s">
+      <c r="E19" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="80" t="s">
+      <c r="F19" s="50" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="36"/>
     </row>
     <row r="20" spans="2:8" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="52" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="45" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="79" t="s">
+      <c r="F20" s="49" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="2:8" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="51" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="32"/>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="80" t="s">
+      <c r="E21" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="80" t="s">
+      <c r="F21" s="50" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="37"/>
@@ -1442,13 +1446,13 @@
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1516,23 +1520,23 @@
         <v>9</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="73"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:9" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1578,23 +1582,23 @@
         <v>14</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="79"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="71"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="82"/>
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -1692,13 +1696,13 @@
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="59"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="70"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H24" s="11" t="s">

--- a/Documents/Matrice RACI Reseau/Matrice_RACI_Reseau.xlsx
+++ b/Documents/Matrice RACI Reseau/Matrice_RACI_Reseau.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azn_j\Desktop\ESGI\2017-2018\Projet_annuel\Projet_Annuel2i\Documents\Matrice RACI Reseau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azn_j\Desktop\Projet_Annuel2i_save\Documents\Matrice RACI Reseau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="57">
   <si>
     <t>RACI Chart (Roles and Responsibilities Matrix)</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>For instructions / training material visit http://www.racichart.org</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Nom du Projet</t>
@@ -131,25 +128,79 @@
     <t>TRAVAIL</t>
   </si>
   <si>
-    <t>Mettre en place la première infrastructure réseau sous packetracer</t>
-  </si>
-  <si>
     <t>Configuration des routeurs</t>
   </si>
   <si>
-    <t>Calcul des adresses ip</t>
-  </si>
-  <si>
     <t>Configuration des ACL</t>
   </si>
   <si>
-    <t>,,,,</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
     <t>AR</t>
+  </si>
+  <si>
+    <t>Prestataire</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>Etudes des cables dont on aura besoin</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Etude du cahier des charges existant</t>
+  </si>
+  <si>
+    <t>Etude du besoin du client</t>
+  </si>
+  <si>
+    <t>Validation du nouveau cahier des charges</t>
+  </si>
+  <si>
+    <t>ETUDE</t>
+  </si>
+  <si>
+    <t>MATERIEL</t>
+  </si>
+  <si>
+    <t>Etude Commercial et Depenses</t>
+  </si>
+  <si>
+    <t>Selection du Fournisseur materiel</t>
+  </si>
+  <si>
+    <t>Recherche Fournisseur materiel</t>
+  </si>
+  <si>
+    <t>CONFIGURATION</t>
+  </si>
+  <si>
+    <t>Configuration IP</t>
+  </si>
+  <si>
+    <t>DEPLOIEMENT</t>
+  </si>
+  <si>
+    <t>Installation des infrastructures</t>
+  </si>
+  <si>
+    <t>Deploiement automatisé</t>
+  </si>
+  <si>
+    <t>RECETTE</t>
+  </si>
+  <si>
+    <t>Cout du service</t>
+  </si>
+  <si>
+    <t>Benefice etc..</t>
   </si>
 </sst>
 </file>
@@ -266,7 +317,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,8 +342,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -531,6 +588,99 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,7 +720,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -590,9 +740,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -643,12 +790,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -662,9 +803,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -675,9 +813,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -702,6 +837,71 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -791,6 +991,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -1171,10 +1386,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I23"/>
+  <dimension ref="B1:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,9 +1402,9 @@
     <col min="10" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="B2" s="41" t="s">
+    <row r="1" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2"/>
@@ -1197,15 +1412,15 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="42"/>
+    <row r="3" spans="2:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="38"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -1215,31 +1430,31 @@
       <c r="H4" s="4"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B5" s="38" t="s">
+    <row r="5" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="73"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="2:9" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1249,25 +1464,25 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="38" t="s">
-        <v>26</v>
+    <row r="8" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B8" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="39">
+      <c r="D8" s="35">
         <v>43136</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="36">
         <v>43136</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:9" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1277,31 +1492,31 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38" t="s">
-        <v>27</v>
+    <row r="10" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="34" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
+      <c r="D10" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="79"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="2:9" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="64"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="82"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1311,154 +1526,441 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="14" spans="2:9" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="43" t="s">
+    <row r="14" spans="2:10" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="104" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="60"/>
+      <c r="D24" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="51" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="52" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="51" t="s">
+      <c r="E26" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-    </row>
-    <row r="18" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="2:8" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="51"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-    </row>
-    <row r="20" spans="2:8" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="2:8" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="36"/>
-    </row>
-    <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="65" t="s">
+      <c r="H26" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="60"/>
+      <c r="D28" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="60"/>
+      <c r="D31" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="101" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="101" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="67"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D5:H6"/>
     <mergeCell ref="D10:H11"/>
-    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D35:H35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1477,235 +1979,235 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="38.796875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="2.296875" style="11" customWidth="1"/>
-    <col min="4" max="8" width="15.796875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="1.19921875" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="10.796875" style="11"/>
+    <col min="1" max="1" width="1.69921875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="38.796875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="2.296875" style="10" customWidth="1"/>
+    <col min="4" max="8" width="15.796875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="1.19921875" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="10.796875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="2:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="2:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="71" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="14"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="2:9" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="2:9" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="77" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="14"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="14" spans="2:9" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="17" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
     </row>
     <row r="18" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="2:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="70"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="88"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="10" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Documents/Matrice RACI Reseau/Matrice_RACI_Reseau.xlsx
+++ b/Documents/Matrice RACI Reseau/Matrice_RACI_Reseau.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="64">
   <si>
     <t>RACI Chart (Roles and Responsibilities Matrix)</t>
   </si>
@@ -197,10 +197,31 @@
     <t>RECETTE</t>
   </si>
   <si>
-    <t>Cout du service</t>
-  </si>
-  <si>
-    <t>Benefice etc..</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Entrevu avec client et validation</t>
+  </si>
+  <si>
+    <t>Configuration des interfaces</t>
+  </si>
+  <si>
+    <t>Configuration Ipsec</t>
+  </si>
+  <si>
+    <t>Routage</t>
+  </si>
+  <si>
+    <t>Choix du Sous traitant</t>
+  </si>
+  <si>
+    <t>Validation mise en place du materiel au sein des etablissement</t>
+  </si>
+  <si>
+    <t>Raquage des baies</t>
   </si>
 </sst>
 </file>
@@ -902,6 +923,21 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -991,21 +1027,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -1386,10 +1407,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J35"/>
+  <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,23 +1456,23 @@
         <v>23</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="2:10" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1497,23 +1518,23 @@
         <v>26</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="79"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="84"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="2:10" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="82"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1551,19 +1572,19 @@
         <v>44</v>
       </c>
       <c r="C15" s="58"/>
-      <c r="D15" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="105" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="105" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="105" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="105" t="s">
+      <c r="D15" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="75" t="s">
         <v>38</v>
       </c>
       <c r="J15" s="3"/>
@@ -1582,14 +1603,14 @@
       <c r="F16" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="103" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="104" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="74" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="46" t="s">
         <v>42</v>
       </c>
@@ -1610,7 +1631,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="46" t="s">
         <v>43</v>
       </c>
@@ -1631,7 +1652,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="59" t="s">
         <v>45</v>
       </c>
@@ -1652,7 +1673,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="47" t="s">
         <v>39</v>
       </c>
@@ -1673,7 +1694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="47" t="s">
         <v>48</v>
       </c>
@@ -1694,7 +1715,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="47" t="s">
         <v>46</v>
       </c>
@@ -1715,7 +1736,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="47" t="s">
         <v>47</v>
       </c>
@@ -1736,7 +1757,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="59" t="s">
         <v>49</v>
       </c>
@@ -1757,7 +1778,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="46" t="s">
         <v>32</v>
       </c>
@@ -1778,189 +1799,318 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="47" t="s">
+    <row r="26" spans="2:14" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="47" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="59" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="59" t="s">
         <v>51</v>
-      </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="70" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="59" t="s">
-        <v>54</v>
       </c>
       <c r="C31" s="60"/>
       <c r="D31" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="69" t="s">
         <v>34</v>
       </c>
       <c r="H31" s="70" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="46" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" s="101" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="46" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="101" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="60"/>
+      <c r="D37" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="85"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D5:H6"/>
     <mergeCell ref="D10:H11"/>
-    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D41:H41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2022,23 +2172,23 @@
         <v>9</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="91"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="96"/>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="94"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="99"/>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="2:9" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2084,23 +2234,23 @@
         <v>14</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="97"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="102"/>
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="100"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="105"/>
       <c r="I11" s="13"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -2198,13 +2348,13 @@
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="86" t="s">
+      <c r="D22" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="88"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="93"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H24" s="10" t="s">

--- a/Documents/Matrice RACI Reseau/Matrice_RACI_Reseau.xlsx
+++ b/Documents/Matrice RACI Reseau/Matrice_RACI_Reseau.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azn_j\Desktop\Projet_Annuel2i_save\Documents\Matrice RACI Reseau\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="3" r:id="rId1"/>
@@ -17,18 +12,18 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="67">
   <si>
     <t>RACI Chart (Roles and Responsibilities Matrix)</t>
   </si>
@@ -146,9 +141,6 @@
     <t>Client</t>
   </si>
   <si>
-    <t>IC</t>
-  </si>
-  <si>
     <t>Etudes des cables dont on aura besoin</t>
   </si>
   <si>
@@ -222,12 +214,31 @@
   </si>
   <si>
     <t>Raquage des baies</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -692,16 +703,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,7 +752,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -861,28 +872,13 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -893,15 +889,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -920,13 +910,7 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1027,6 +1011,54 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -1403,28 +1435,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N41"/>
+  <dimension ref="B1:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.296875" style="1" customWidth="1"/>
-    <col min="4" max="8" width="15.796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.19921875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.796875" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" style="1" customWidth="1"/>
+    <col min="4" max="8" width="15.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="1.1640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:10" ht="12" customHeight="1"/>
+    <row r="2" spans="2:10" ht="22.75">
       <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1465,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="14" customHeight="1">
       <c r="B3" s="38"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1441,7 +1473,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="2:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" ht="20.5">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -1451,31 +1483,31 @@
       <c r="H4" s="4"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="17.5">
       <c r="B5" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="69"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="18" customHeight="1">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="72"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="2:10" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="8" customHeight="1">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1485,7 +1517,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="18">
       <c r="B8" s="34" t="s">
         <v>25</v>
       </c>
@@ -1503,7 +1535,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:10" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="8" customHeight="1">
       <c r="B9" s="5"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1513,31 +1545,31 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="20" customHeight="1">
       <c r="B10" s="34" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="2:10" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="19" customHeight="1">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="15" customHeight="1">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1547,7 +1579,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="14" spans="2:10" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" ht="26" customHeight="1" thickBot="1">
       <c r="B14" s="39" t="s">
         <v>31</v>
       </c>
@@ -1567,218 +1599,206 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="57" t="s">
+    <row r="15" spans="2:10" ht="26" customHeight="1" thickBot="1">
+      <c r="B15" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" ht="25.25" customHeight="1">
+      <c r="B16" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="25.25" customHeight="1">
+      <c r="B17" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="25.25" customHeight="1">
+      <c r="B18" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="65"/>
+    </row>
+    <row r="19" spans="2:14" ht="25.25" customHeight="1">
+      <c r="B19" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="75" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="101" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="18" customHeight="1">
+      <c r="B20" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="75" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="75" t="s">
+      <c r="F20" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="18" customHeight="1">
+      <c r="B21" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="50"/>
+      <c r="H21" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="18" customHeight="1">
+      <c r="B22" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="18" customHeight="1">
+      <c r="B23" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="51" t="s">
+      <c r="H23" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="18" customHeight="1">
+      <c r="B24" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="74" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="63" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="66" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="58"/>
+      <c r="H24" s="59"/>
+    </row>
+    <row r="25" spans="2:14" ht="19.75" customHeight="1">
       <c r="B25" s="46" t="s">
         <v>32</v>
       </c>
@@ -1786,62 +1806,50 @@
       <c r="D25" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="43" t="s">
-        <v>38</v>
+      <c r="E25" s="104" t="s">
+        <v>63</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="2:14" ht="19.75" customHeight="1">
       <c r="B26" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="43" t="s">
-        <v>38</v>
+      <c r="E26" s="104" t="s">
+        <v>63</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
+    </row>
+    <row r="27" spans="2:14" ht="19.75" customHeight="1">
       <c r="B27" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="43" t="s">
-        <v>38</v>
+      <c r="E27" s="104" t="s">
+        <v>63</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
+    </row>
+    <row r="28" spans="2:14" ht="22.25" customHeight="1">
       <c r="B28" s="47" t="s">
         <v>33</v>
       </c>
@@ -1849,92 +1857,80 @@
       <c r="D28" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="2:14" ht="22.25" customHeight="1">
       <c r="B29" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="2:14" ht="22.25" customHeight="1">
       <c r="B30" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="55" t="s">
+      <c r="E30" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="51"/>
+      <c r="H30" s="105"/>
+    </row>
+    <row r="31" spans="2:14" ht="22.25" customHeight="1">
+      <c r="B31" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="55"/>
+      <c r="D31" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="106" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="59" t="s">
+      <c r="H31" s="108" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="21" customHeight="1" thickBot="1">
+      <c r="B32" s="46" t="s">
         <v>51</v>
-      </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" s="70" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="46" t="s">
-        <v>52</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="45" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="F32" s="45" t="s">
         <v>35</v>
@@ -1942,169 +1938,164 @@
       <c r="G32" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="33" t="s">
-        <v>38</v>
-      </c>
+      <c r="H32" s="33"/>
       <c r="N32" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="21" customHeight="1" thickBot="1">
       <c r="B33" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="F33" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="32" t="s">
-        <v>34</v>
-      </c>
+      <c r="G33" s="32"/>
       <c r="H33" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="30" customHeight="1" thickBot="1">
       <c r="B34" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="45" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="F34" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="32"/>
+      <c r="H34" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="21" customHeight="1" thickBot="1">
+      <c r="B35" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="20.5" customHeight="1" thickBot="1">
+      <c r="B36" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="44"/>
+      <c r="H36" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="20.5" customHeight="1">
+      <c r="B37" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="55"/>
+      <c r="D37" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="45" t="s">
+      <c r="E37" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="F37" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="106" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="108" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="21.5" customHeight="1" thickBot="1">
+      <c r="B38" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="109" t="s">
         <v>34</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" s="70" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="42" t="s">
-        <v>38</v>
       </c>
       <c r="E38" s="45" t="s">
         <v>35</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" s="63"/>
+    </row>
+    <row r="39" spans="2:10" ht="21.5" customHeight="1" thickBot="1">
+      <c r="B39" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="109" t="s">
         <v>34</v>
-      </c>
-      <c r="H38" s="71" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="42" t="s">
-        <v>38</v>
       </c>
       <c r="E39" s="45" t="s">
         <v>35</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" s="71" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="15" customHeight="1"/>
+    <row r="41" spans="2:10" ht="15" customHeight="1">
+      <c r="D41" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="90"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="81"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="J43" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2114,31 +2105,35 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="73" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:I24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="38.796875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="2.296875" style="10" customWidth="1"/>
-    <col min="4" max="8" width="15.796875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="1.19921875" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="10.796875" style="10"/>
+    <col min="1" max="1" width="1.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" style="10" customWidth="1"/>
+    <col min="4" max="8" width="15.83203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="1.1640625" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="12" customHeight="1"/>
+    <row r="2" spans="2:9" ht="20.5">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -2147,7 +2142,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="2:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="14" customHeight="1">
       <c r="B3" s="12" t="s">
         <v>22</v>
       </c>
@@ -2157,7 +2152,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="2:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="20.5">
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
@@ -2167,31 +2162,31 @@
       <c r="H4" s="14"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9">
       <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="96"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="99"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="2:9" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="8" customHeight="1">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -2201,7 +2196,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9">
       <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
@@ -2219,7 +2214,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="2:9" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="8" customHeight="1">
       <c r="B9" s="15"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -2229,31 +2224,31 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15" customHeight="1">
       <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="102"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="93"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="15" customHeight="1">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="105"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="96"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9">
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -2263,7 +2258,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="14" spans="2:9" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="26" customHeight="1" thickBot="1">
       <c r="D14" s="17" t="s">
         <v>1</v>
       </c>
@@ -2280,7 +2275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="40" customHeight="1">
       <c r="B15" s="18" t="s">
         <v>15</v>
       </c>
@@ -2291,7 +2286,7 @@
       <c r="G15" s="21"/>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="40" customHeight="1">
       <c r="B16" s="18" t="s">
         <v>16</v>
       </c>
@@ -2302,7 +2297,7 @@
       <c r="G16" s="24"/>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="40" customHeight="1">
       <c r="B17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2313,7 +2308,7 @@
       <c r="G17" s="24"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="40" customHeight="1">
       <c r="B18" s="18" t="s">
         <v>18</v>
       </c>
@@ -2324,7 +2319,7 @@
       <c r="G18" s="24"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="40" customHeight="1">
       <c r="B19" s="18" t="s">
         <v>19</v>
       </c>
@@ -2335,7 +2330,7 @@
       <c r="G19" s="24"/>
       <c r="H19" s="25"/>
     </row>
-    <row r="20" spans="2:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="40" customHeight="1" thickBot="1">
       <c r="B20" s="18" t="s">
         <v>20</v>
       </c>
@@ -2346,17 +2341,17 @@
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="91" t="s">
+    <row r="21" spans="2:8" ht="15" customHeight="1"/>
+    <row r="22" spans="2:8" ht="15" customHeight="1">
+      <c r="D22" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="93"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
+    </row>
+    <row r="24" spans="2:8">
       <c r="H24" s="10" t="s">
         <v>7</v>
       </c>
@@ -2369,6 +2364,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="84" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>